--- a/Calculs/PH4/DataBase_PH4_FileA_V6_results.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileA_V6_results.xlsx
@@ -983,7 +983,7 @@
         <v>5.612433560417202</v>
       </c>
       <c r="AS3" t="n">
-        <v>-366.5525160462996</v>
+        <v>-366.5525160462997</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>55.35</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.765258747682811</v>
+        <v>7.765258747682797</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.300504741200212</v>
       </c>
       <c r="AK4" t="n">
-        <v>-212.8251871188554</v>
+        <v>-212.8251871188553</v>
       </c>
       <c r="AL4" t="n">
         <v>-162.0184285908314</v>
@@ -1142,10 +1142,10 @@
         <v>16.66666666666667</v>
       </c>
       <c r="AS4" t="n">
-        <v>-441.0673223291664</v>
+        <v>-441.0673223291662</v>
       </c>
       <c r="AT4" t="n">
-        <v>-444.9526412418414</v>
+        <v>-444.9526412418413</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>89.09999999999999</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.311674320523469</v>
+        <v>9.311674320523474</v>
       </c>
       <c r="AX4" t="n">
         <v>-262.2983132364865</v>
@@ -1271,10 +1271,10 @@
         <v>29.575</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.869357076888201</v>
+        <v>2.869357076888204</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.799278350235531</v>
+        <v>4.799278350235524</v>
       </c>
       <c r="AK5" t="n">
         <v>-106.2028741196837</v>
@@ -1313,7 +1313,7 @@
         <v>46.25</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.707896850255225</v>
+        <v>5.707896850255222</v>
       </c>
       <c r="AX5" t="n">
         <v>-300.6554812820286</v>
@@ -1899,10 +1899,10 @@
         <v>29.175</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.68936665822828</v>
+        <v>2.689366658228284</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.294786337223059</v>
+        <v>4.294786337223053</v>
       </c>
       <c r="AK9" t="n">
         <v>-131.9614504848367</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-245.8509805598423</v>
+        <v>-245.8509805598424</v>
       </c>
       <c r="AO9" t="n">
         <v>62.6925</v>
@@ -2058,7 +2058,7 @@
         <v>61.8</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.37497749020234</v>
+        <v>6.374977490202348</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.043111017313942</v>
@@ -2100,7 +2100,7 @@
         <v>98.8</v>
       </c>
       <c r="AW10" t="n">
-        <v>9.015167695417936</v>
+        <v>9.015167695417942</v>
       </c>
       <c r="AX10" t="n">
         <v>-301.1500750988818</v>
@@ -2535,16 +2535,16 @@
         <v>6.935</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.469677648646741</v>
+        <v>1.469677648646744</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.673542339514252</v>
+        <v>1.673542339514249</v>
       </c>
       <c r="AK13" t="n">
-        <v>-96.88162892010354</v>
+        <v>-96.88162892010352</v>
       </c>
       <c r="AL13" t="n">
-        <v>-97.66569156898294</v>
+        <v>-97.66569156898295</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>25.25707130434779</v>
       </c>
       <c r="AR15" t="n">
-        <v>2.784822293965306</v>
+        <v>2.78482229396531</v>
       </c>
       <c r="AS15" t="n">
-        <v>-256.7613894247271</v>
+        <v>-256.7613894247272</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>-287.8081867277727</v>
       </c>
       <c r="AL16" t="n">
-        <v>-97.83914806222094</v>
+        <v>-97.83914806222093</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>94.91345826388874</v>
       </c>
       <c r="AR17" t="n">
-        <v>7.302291090862183</v>
+        <v>7.302291090862179</v>
       </c>
       <c r="AS17" t="n">
         <v>-427.7778891642081</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>-589.6823900712136</v>
+        <v>-589.6823900712137</v>
       </c>
       <c r="AV17" t="n">
         <v>42.4225</v>
@@ -3495,7 +3495,7 @@
         <v>1.432615579720522</v>
       </c>
       <c r="AK19" t="n">
-        <v>-187.171946408762</v>
+        <v>-187.1719464087621</v>
       </c>
       <c r="AL19" t="n">
         <v>-65.50708315006065</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>-430.0415274912485</v>
+        <v>-430.0415274912484</v>
       </c>
       <c r="AV19" t="n">
         <v>31.46</v>
@@ -3802,7 +3802,7 @@
         <v>1.738924875684847</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3.185342290627908</v>
+        <v>3.185342290627911</v>
       </c>
       <c r="AK21" t="n">
         <v>-85.32531188243007</v>
@@ -3844,7 +3844,7 @@
         <v>3.763838079842326</v>
       </c>
       <c r="AX21" t="n">
-        <v>-258.1782586829841</v>
+        <v>-258.1782586829842</v>
       </c>
       <c r="AY21" t="n">
         <v>56.86374264883423</v>
@@ -4120,7 +4120,7 @@
         <v>3.876424205439474</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6.206083259648934</v>
+        <v>6.206083259648929</v>
       </c>
       <c r="AK23" t="n">
         <v>-122.6000482980193</v>
@@ -4162,7 +4162,7 @@
         <v>7.498847257351277</v>
       </c>
       <c r="AX23" t="n">
-        <v>-344.9043255597933</v>
+        <v>-344.9043255597935</v>
       </c>
       <c r="AY23" t="n">
         <v>97.15351708231987</v>
@@ -4276,22 +4276,22 @@
         <v>39.1</v>
       </c>
       <c r="AI24" t="n">
-        <v>13.01988938960842</v>
+        <v>13.01988938960841</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.986050054474478</v>
+        <v>6.986050054474479</v>
       </c>
       <c r="AK24" t="n">
-        <v>-351.300435742254</v>
+        <v>-351.3004357422541</v>
       </c>
       <c r="AL24" t="n">
-        <v>-141.114574747183</v>
+        <v>-141.1145747471829</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>-283.7051039908732</v>
+        <v>-283.7051039908731</v>
       </c>
       <c r="AO24" t="n">
         <v>119.1</v>
@@ -4438,7 +4438,7 @@
         <v>3.060345689331593</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2.280457838271042</v>
+        <v>2.280457838271045</v>
       </c>
       <c r="AK25" t="n">
         <v>-201.738985290823</v>
@@ -4594,22 +4594,22 @@
         <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.802667101134079</v>
+        <v>2.802667101134083</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.713344717894443</v>
+        <v>1.713344717894441</v>
       </c>
       <c r="AK26" t="n">
-        <v>-94.16493757654078</v>
+        <v>-94.16493757654081</v>
       </c>
       <c r="AL26" t="n">
-        <v>-44.38450408152428</v>
+        <v>-44.38450408152426</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
       </c>
       <c r="AN26" t="n">
-        <v>-72.46676479873901</v>
+        <v>-72.46676479873896</v>
       </c>
       <c r="AO26" t="n">
         <v>39.75</v>
@@ -4636,7 +4636,7 @@
         <v>28</v>
       </c>
       <c r="AW26" t="n">
-        <v>3.853313927817629</v>
+        <v>3.853313927817626</v>
       </c>
       <c r="AX26" t="n">
         <v>-179.458541931922</v>
@@ -4780,7 +4780,7 @@
         <v>48.05751031038557</v>
       </c>
       <c r="AR27" t="n">
-        <v>6.683574513132577</v>
+        <v>6.683574513132568</v>
       </c>
       <c r="AS27" t="n">
         <v>-435.6499189782247</v>
@@ -5107,13 +5107,13 @@
         <v>0</v>
       </c>
       <c r="AU29" t="n">
-        <v>-623.804020910029</v>
+        <v>-623.8040209100283</v>
       </c>
       <c r="AV29" t="n">
         <v>70.3125</v>
       </c>
       <c r="AW29" t="n">
-        <v>14.85745329387881</v>
+        <v>14.85745329387886</v>
       </c>
       <c r="AX29" t="n">
         <v>-441.9649000697294</v>
@@ -5392,19 +5392,19 @@
         <v>3.580139449939393</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.576902124073224</v>
+        <v>1.576902124073223</v>
       </c>
       <c r="AK31" t="n">
         <v>-175.6697597579443</v>
       </c>
       <c r="AL31" t="n">
-        <v>-72.10465949373766</v>
+        <v>-72.10465949373764</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>-95.74001188847357</v>
+        <v>-95.74001188847356</v>
       </c>
       <c r="AO31" t="n">
         <v>43.35</v>
@@ -5416,16 +5416,16 @@
         <v>79.64065551027335</v>
       </c>
       <c r="AR31" t="n">
-        <v>4.901665356551312</v>
+        <v>4.901665356551307</v>
       </c>
       <c r="AS31" t="n">
-        <v>-317.3042579680405</v>
+        <v>-317.3042579680406</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>-425.2812474199176</v>
+        <v>-425.2812474199177</v>
       </c>
       <c r="AV31" t="n">
         <v>31</v>
@@ -5671,53 +5671,53 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>21.625</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="AA33" t="n">
         <v>0.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>10.8125</v>
+        <v>9.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>16.5625</v>
+        <v>14.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>37.81875</v>
+        <v>33.15000000000001</v>
       </c>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="n">
-        <v>27.375</v>
+        <v>24</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.8125</v>
+        <v>9.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>16.5625</v>
+        <v>14.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>1.843345609641411</v>
+        <v>1.619586894020201</v>
       </c>
       <c r="AJ33" t="n">
-        <v>2.611744142996274</v>
+        <v>2.286508079906174</v>
       </c>
       <c r="AK33" t="n">
-        <v>-90.44901320870348</v>
+        <v>-79.46965322383194</v>
       </c>
       <c r="AL33" t="n">
-        <v>-119.423342286503</v>
+        <v>-104.5517562659196</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>-158.5693946902843</v>
+        <v>-138.8230172382867</v>
       </c>
       <c r="AO33" t="n">
-        <v>37.81875</v>
+        <v>33.15000000000001</v>
       </c>
       <c r="AP33" t="n">
         <v>56.86374264883423</v>
@@ -5726,25 +5726,25 @@
         <v>79.64065551027335</v>
       </c>
       <c r="AR33" t="n">
-        <v>4.305787381099021</v>
+        <v>3.795820679072868</v>
       </c>
       <c r="AS33" t="n">
-        <v>-276.7472041769851</v>
+        <v>-242.5311555182185</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>-370.8759545113701</v>
+        <v>-324.988262812224</v>
       </c>
       <c r="AV33" t="n">
-        <v>27.375</v>
+        <v>24</v>
       </c>
       <c r="AW33" t="n">
-        <v>3.403080729912907</v>
+        <v>2.996882687889133</v>
       </c>
       <c r="AX33" t="n">
-        <v>-232.4482614849055</v>
+        <v>-203.7519550100825</v>
       </c>
       <c r="AY33" t="n">
         <v>56.86374264883423</v>
@@ -5827,56 +5827,56 @@
         <v>30</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.75</v>
+        <v>105</v>
       </c>
       <c r="Z34" t="n">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="AA34" t="n">
         <v>0.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>49.875</v>
+        <v>52.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>78.375</v>
+        <v>82.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>177.4125</v>
+        <v>186.75</v>
       </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="n">
-        <v>128.25</v>
+        <v>135</v>
       </c>
       <c r="AG34" t="n">
-        <v>49.875</v>
+        <v>52.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>78.375</v>
+        <v>82.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>8.593297360103834</v>
+        <v>9.045576168530348</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9.6250286237378</v>
+        <v>10.13160907761874</v>
       </c>
       <c r="AK34" t="n">
-        <v>-260.7052886852735</v>
+        <v>-274.426619668709</v>
       </c>
       <c r="AL34" t="n">
-        <v>-206.5319120006624</v>
+        <v>-217.4020126322762</v>
       </c>
       <c r="AM34" t="n">
-        <v>-251.1469416462102</v>
+        <v>-264.3652017328528</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>177.4125</v>
+        <v>186.75</v>
       </c>
       <c r="AP34" t="n">
         <v>89.00659508617929</v>
@@ -5897,13 +5897,13 @@
         <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>128.25</v>
+        <v>135</v>
       </c>
       <c r="AW34" t="n">
-        <v>10.76336343732735</v>
+        <v>11.38022799526081</v>
       </c>
       <c r="AX34" t="n">
-        <v>-345.6527739740289</v>
+        <v>-378.6114495703746</v>
       </c>
       <c r="AY34" t="n">
         <v>155.9905906599841</v>
@@ -5989,53 +5989,53 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>51.95</v>
+        <v>53.975</v>
       </c>
       <c r="Z35" t="n">
-        <v>18.575</v>
+        <v>19.475</v>
       </c>
       <c r="AA35" t="n">
         <v>0.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>25.975</v>
+        <v>26.9875</v>
       </c>
       <c r="AC35" t="n">
-        <v>44.55</v>
+        <v>46.46250000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>97.995</v>
+        <v>102.07875</v>
       </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="n">
-        <v>70.52500000000001</v>
+        <v>73.45</v>
       </c>
       <c r="AG35" t="n">
-        <v>25.975</v>
+        <v>26.9875</v>
       </c>
       <c r="AH35" t="n">
-        <v>44.55</v>
+        <v>46.46250000000001</v>
       </c>
       <c r="AI35" t="n">
-        <v>4.469658175242644</v>
+        <v>4.643884504498976</v>
       </c>
       <c r="AJ35" t="n">
-        <v>6.572926370752371</v>
+        <v>6.855097452325072</v>
       </c>
       <c r="AK35" t="n">
-        <v>-165.4344620844848</v>
+        <v>-171.8830623871043</v>
       </c>
       <c r="AL35" t="n">
-        <v>-212.4135161139777</v>
+        <v>-221.5322781693759</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>-291.0079560927752</v>
+        <v>-303.500721884637</v>
       </c>
       <c r="AO35" t="n">
-        <v>97.995</v>
+        <v>102.07875</v>
       </c>
       <c r="AP35" t="n">
         <v>74.70889227763402</v>
@@ -6044,25 +6044,25 @@
         <v>140.3755137929809</v>
       </c>
       <c r="AR35" t="n">
-        <v>10.47853420877176</v>
+        <v>11.09895050812697</v>
       </c>
       <c r="AS35" t="n">
-        <v>-435.3359956578621</v>
+        <v>-435.601861738677</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
       </c>
       <c r="AU35" t="n">
-        <v>-813.3636988641157</v>
+        <v>-913.1152576217962</v>
       </c>
       <c r="AV35" t="n">
-        <v>70.52500000000001</v>
+        <v>73.45</v>
       </c>
       <c r="AW35" t="n">
-        <v>15.23605432830342</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AX35" t="n">
-        <v>-442.7814596688591</v>
+        <v>-458.2439465302144</v>
       </c>
       <c r="AY35" t="n">
         <v>74.70889227763402</v>
@@ -6145,56 +6145,56 @@
         <v>33</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.05</v>
+        <v>-0.15</v>
       </c>
       <c r="Y36" t="n">
-        <v>88.34999999999999</v>
+        <v>79.05</v>
       </c>
       <c r="Z36" t="n">
-        <v>31.35</v>
+        <v>28.05</v>
       </c>
       <c r="AA36" t="n">
         <v>0.25</v>
       </c>
       <c r="AB36" t="n">
-        <v>66.26249999999999</v>
+        <v>59.28749999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>53.4375</v>
+        <v>47.8125</v>
       </c>
       <c r="AD36" t="n">
-        <v>166.2975</v>
+        <v>148.7925</v>
       </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="n">
-        <v>119.7</v>
+        <v>107.1</v>
       </c>
       <c r="AG36" t="n">
-        <v>66.26249999999999</v>
+        <v>59.28749999999999</v>
       </c>
       <c r="AH36" t="n">
-        <v>53.4375</v>
+        <v>47.8125</v>
       </c>
       <c r="AI36" t="n">
-        <v>11.77524077026599</v>
+        <v>10.53574174181697</v>
       </c>
       <c r="AJ36" t="n">
-        <v>7.51051704861576</v>
+        <v>6.7199363066562</v>
       </c>
       <c r="AK36" t="n">
-        <v>-372.2477651116328</v>
+        <v>-333.063789836724</v>
       </c>
       <c r="AL36" t="n">
-        <v>-192.1524460761429</v>
+        <v>-171.9258728049697</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>-270.0037827723248</v>
+        <v>-241.5823319541851</v>
       </c>
       <c r="AO36" t="n">
-        <v>166.2975</v>
+        <v>148.7925</v>
       </c>
       <c r="AP36" t="n">
         <v>83.35514855552115</v>
@@ -6203,19 +6203,19 @@
         <v>207.6298806471556</v>
       </c>
       <c r="AR36" t="n">
-        <v>15.51027097370597</v>
+        <v>14.22827373076939</v>
       </c>
       <c r="AS36" t="n">
-        <v>-436.4747201657586</v>
+        <v>-435.8507828160369</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
       </c>
       <c r="AU36" t="n">
-        <v>-1282.17461077002</v>
+        <v>-1039.846891845396</v>
       </c>
       <c r="AV36" t="n">
-        <v>119.7</v>
+        <v>107.1</v>
       </c>
       <c r="AW36" t="n">
         <v>0</v>
@@ -6307,53 +6307,53 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.325</v>
+        <v>8.975</v>
       </c>
       <c r="Z37" t="n">
-        <v>7.125</v>
+        <v>8.775</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>4.325</v>
+        <v>8.975</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.125</v>
+        <v>8.775</v>
       </c>
       <c r="AD37" t="n">
-        <v>16.52625</v>
+        <v>25.27875</v>
       </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="n">
-        <v>11.45</v>
+        <v>17.75</v>
       </c>
       <c r="AG37" t="n">
-        <v>4.325</v>
+        <v>8.975</v>
       </c>
       <c r="AH37" t="n">
-        <v>7.125</v>
+        <v>8.775</v>
       </c>
       <c r="AI37" t="n">
-        <v>1.231255705303831</v>
+        <v>2.555032796441963</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1.393899420891228</v>
+        <v>1.716697181518666</v>
       </c>
       <c r="AK37" t="n">
-        <v>-81.16475225636825</v>
+        <v>-168.4285946962916</v>
       </c>
       <c r="AL37" t="n">
-        <v>-66.86007977823787</v>
+        <v>-82.34346667425086</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>-90.63095775117064</v>
+        <v>-111.6191795461786</v>
       </c>
       <c r="AO37" t="n">
-        <v>16.52625</v>
+        <v>25.27875</v>
       </c>
       <c r="AP37" t="n">
         <v>25.25707130434779</v>
@@ -6362,25 +6362,25 @@
         <v>96.47654909095016</v>
       </c>
       <c r="AR37" t="n">
-        <v>2.366870651512559</v>
+        <v>3.573980775179085</v>
       </c>
       <c r="AS37" t="n">
-        <v>-156.5089675054116</v>
+        <v>-239.478881002467</v>
       </c>
       <c r="AT37" t="n">
         <v>0</v>
       </c>
       <c r="AU37" t="n">
-        <v>-214.1287458408536</v>
+        <v>-327.7234794176219</v>
       </c>
       <c r="AV37" t="n">
-        <v>11.45</v>
+        <v>17.75</v>
       </c>
       <c r="AW37" t="n">
-        <v>2.368630430170654</v>
+        <v>3.619943262217769</v>
       </c>
       <c r="AX37" t="n">
-        <v>-217.345443990476</v>
+        <v>-337.0935614411175</v>
       </c>
       <c r="AY37" t="n">
         <v>25.25707130434779</v>
@@ -6497,13 +6497,13 @@
         <v>4.671111835223467</v>
       </c>
       <c r="AJ38" t="n">
-        <v>2.802667101134079</v>
+        <v>2.802667101134083</v>
       </c>
       <c r="AK38" t="n">
         <v>-156.941562627568</v>
       </c>
       <c r="AL38" t="n">
-        <v>-94.16493757654078</v>
+        <v>-94.16493757654081</v>
       </c>
       <c r="AM38" t="n">
         <v>0</v>
@@ -6625,53 +6625,53 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>4</v>
+        <v>8.625</v>
       </c>
       <c r="Z39" t="n">
-        <v>6.5</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>4</v>
+        <v>8.625</v>
       </c>
       <c r="AC39" t="n">
-        <v>6.5</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AD39" t="n">
-        <v>15.15</v>
+        <v>23.71875</v>
       </c>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="n">
-        <v>10.5</v>
+        <v>16.675</v>
       </c>
       <c r="AG39" t="n">
-        <v>4</v>
+        <v>8.625</v>
       </c>
       <c r="AH39" t="n">
-        <v>6.5</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AI39" t="n">
-        <v>1.138733887920581</v>
+        <v>2.45539363446372</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.271627541865679</v>
+        <v>1.574861801849036</v>
       </c>
       <c r="AK39" t="n">
-        <v>-75.06566492538141</v>
+        <v>-161.8603486635672</v>
       </c>
       <c r="AL39" t="n">
-        <v>-60.9951604994451</v>
+        <v>-75.54016031085121</v>
       </c>
       <c r="AM39" t="n">
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>-82.68087373791008</v>
+        <v>-102.3970820907963</v>
       </c>
       <c r="AO39" t="n">
-        <v>15.15</v>
+        <v>23.71875</v>
       </c>
       <c r="AP39" t="n">
         <v>25.25707130434779</v>
@@ -6680,25 +6680,25 @@
         <v>96.47654909095016</v>
       </c>
       <c r="AR39" t="n">
-        <v>2.174077304022191</v>
+        <v>3.361265724493908</v>
       </c>
       <c r="AS39" t="n">
-        <v>-143.4679215764835</v>
+        <v>-224.6865093825615</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
       </c>
       <c r="AU39" t="n">
-        <v>-196.2793133838677</v>
+        <v>-307.4668813447997</v>
       </c>
       <c r="AV39" t="n">
-        <v>10.5</v>
+        <v>16.675</v>
       </c>
       <c r="AW39" t="n">
-        <v>2.176677257981593</v>
+        <v>3.409118954608357</v>
       </c>
       <c r="AX39" t="n">
-        <v>-199.2983428546636</v>
+        <v>-316.6519380322586</v>
       </c>
       <c r="AY39" t="n">
         <v>25.25707130434779</v>
@@ -6748,7 +6748,7 @@
         <v>2.2</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0010482</v>
+        <v>0.0011826</v>
       </c>
       <c r="N40" t="n">
         <v>0.04</v>
@@ -6781,77 +6781,77 @@
         <v>31</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Y40" t="n">
-        <v>92.5</v>
+        <v>83.25</v>
       </c>
       <c r="Z40" t="n">
-        <v>31</v>
+        <v>27.9</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>92.5</v>
+        <v>83.25</v>
       </c>
       <c r="AC40" t="n">
-        <v>31</v>
+        <v>27.9</v>
       </c>
       <c r="AD40" t="n">
-        <v>171.375</v>
+        <v>154.2375</v>
       </c>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="n">
-        <v>123.5</v>
+        <v>111.15</v>
       </c>
       <c r="AG40" t="n">
-        <v>92.5</v>
+        <v>83.25</v>
       </c>
       <c r="AH40" t="n">
-        <v>31</v>
+        <v>27.9</v>
       </c>
       <c r="AI40" t="n">
-        <v>16.43780073570431</v>
+        <v>14.07483011873447</v>
       </c>
       <c r="AJ40" t="n">
-        <v>4.356978311243761</v>
+        <v>3.813232484302138</v>
       </c>
       <c r="AK40" t="n">
-        <v>-519.6441165489686</v>
+        <v>-415.7472879928399</v>
       </c>
       <c r="AL40" t="n">
-        <v>-111.4708926944641</v>
+        <v>-92.92662129400384</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>-156.6337733977463</v>
+        <v>-130.8574732017375</v>
       </c>
       <c r="AO40" t="n">
-        <v>171.375</v>
+        <v>154.2375</v>
       </c>
       <c r="AP40" t="n">
-        <v>83.35514855552115</v>
+        <v>92.89819896561836</v>
       </c>
       <c r="AQ40" t="n">
-        <v>207.6298806471556</v>
+        <v>216.4194743553796</v>
       </c>
       <c r="AR40" t="n">
-        <v>15.80668325859543</v>
+        <v>14.2952207844448</v>
       </c>
       <c r="AS40" t="n">
-        <v>-436.6568257230886</v>
+        <v>-435.714838340416</v>
       </c>
       <c r="AT40" t="n">
         <v>0</v>
       </c>
       <c r="AU40" t="n">
-        <v>-1353.047897617224</v>
+        <v>-990.1021827111036</v>
       </c>
       <c r="AV40" t="n">
-        <v>123.5</v>
+        <v>111.15</v>
       </c>
       <c r="AW40" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="AY40" t="n">
-        <v>83.35514855552115</v>
+        <v>92.89819896561836</v>
       </c>
     </row>
     <row r="41">
@@ -6907,7 +6907,7 @@
         <v>2.2</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0005654</v>
+        <v>0.0006294</v>
       </c>
       <c r="N41" t="n">
         <v>0.04</v>
@@ -6943,74 +6943,74 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>44</v>
+        <v>46.125</v>
       </c>
       <c r="Z41" t="n">
-        <v>16.1</v>
+        <v>16.8125</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>44</v>
+        <v>46.125</v>
       </c>
       <c r="AC41" t="n">
-        <v>16.1</v>
+        <v>16.8125</v>
       </c>
       <c r="AD41" t="n">
-        <v>83.55000000000001</v>
+        <v>87.48750000000001</v>
       </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="n">
-        <v>60.1</v>
+        <v>62.9375</v>
       </c>
       <c r="AG41" t="n">
-        <v>44</v>
+        <v>46.125</v>
       </c>
       <c r="AH41" t="n">
-        <v>16.1</v>
+        <v>16.8125</v>
       </c>
       <c r="AI41" t="n">
-        <v>9.058526744606066</v>
+        <v>9.038374543675513</v>
       </c>
       <c r="AJ41" t="n">
-        <v>2.522185446144319</v>
+        <v>2.565381125125591</v>
       </c>
       <c r="AK41" t="n">
-        <v>-416.2257316273615</v>
+        <v>-392.8560978922737</v>
       </c>
       <c r="AL41" t="n">
-        <v>-91.34279668484484</v>
+        <v>-89.48400364417702</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>-124.7039234732162</v>
+        <v>-122.3017626466513</v>
       </c>
       <c r="AO41" t="n">
-        <v>83.55000000000001</v>
+        <v>87.48750000000001</v>
       </c>
       <c r="AP41" t="n">
-        <v>50.29503576592921</v>
+        <v>55.90162796970357</v>
       </c>
       <c r="AQ41" t="n">
-        <v>142.1882406676468</v>
+        <v>147.0842360905398</v>
       </c>
       <c r="AR41" t="n">
-        <v>9.315546467595736</v>
+        <v>9.466210338396593</v>
       </c>
       <c r="AS41" t="n">
-        <v>-435.1834568750024</v>
+        <v>-435.1348686074538</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>-752.8098997111333</v>
+        <v>-735.7144299424046</v>
       </c>
       <c r="AV41" t="n">
-        <v>60.1</v>
+        <v>62.9375</v>
       </c>
       <c r="AW41" t="n">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AY41" t="n">
-        <v>50.29503576592921</v>
+        <v>55.90162796970357</v>
       </c>
     </row>
     <row r="42">
@@ -7099,56 +7099,56 @@
         <v>33.5</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y42" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Z42" t="n">
-        <v>33.5</v>
+        <v>35.175</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AC42" t="n">
-        <v>33.5</v>
+        <v>35.175</v>
       </c>
       <c r="AD42" t="n">
-        <v>185.25</v>
+        <v>194.5125</v>
       </c>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="n">
-        <v>133.5</v>
+        <v>140.175</v>
       </c>
       <c r="AG42" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AH42" t="n">
-        <v>33.5</v>
+        <v>35.175</v>
       </c>
       <c r="AI42" t="n">
-        <v>13.90192044209841</v>
+        <v>14.59701646420333</v>
       </c>
       <c r="AJ42" t="n">
-        <v>4.16748133323382</v>
+        <v>4.375855399895508</v>
       </c>
       <c r="AK42" t="n">
-        <v>-317.1470069968449</v>
+        <v>-333.0043573466872</v>
       </c>
       <c r="AL42" t="n">
-        <v>-87.67580258528629</v>
+        <v>-92.0595927145506</v>
       </c>
       <c r="AM42" t="n">
         <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>-145.276928324194</v>
+        <v>-152.5407747404037</v>
       </c>
       <c r="AO42" t="n">
-        <v>185.25</v>
+        <v>194.5125</v>
       </c>
       <c r="AP42" t="n">
         <v>141.9525202393384</v>
@@ -7157,25 +7157,25 @@
         <v>209.9452892531999</v>
       </c>
       <c r="AR42" t="n">
-        <v>15.61601246189511</v>
+        <v>16.21949004587589</v>
       </c>
       <c r="AS42" t="n">
-        <v>-435.965046724541</v>
+        <v>-436.4402471558978</v>
       </c>
       <c r="AT42" t="n">
         <v>0</v>
       </c>
       <c r="AU42" t="n">
-        <v>-1289.188592939638</v>
+        <v>-1503.77261757474</v>
       </c>
       <c r="AV42" t="n">
-        <v>133.5</v>
+        <v>140.175</v>
       </c>
       <c r="AW42" t="n">
-        <v>13.24761818605021</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AX42" t="n">
-        <v>-435.2630876175085</v>
+        <v>-441.9656301343309</v>
       </c>
       <c r="AY42" t="n">
         <v>141.9525202393384</v>
@@ -7261,53 +7261,53 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>10</v>
+        <v>9.1625</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>10</v>
+        <v>9.1625</v>
       </c>
       <c r="AD43" t="n">
-        <v>42</v>
+        <v>37.36875</v>
       </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="n">
-        <v>30</v>
+        <v>26.6625</v>
       </c>
       <c r="AG43" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>10</v>
+        <v>9.1625</v>
       </c>
       <c r="AI43" t="n">
-        <v>3.409656618989899</v>
+        <v>2.983449541616162</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1.576902124073224</v>
+        <v>1.444836571182091</v>
       </c>
       <c r="AK43" t="n">
-        <v>-167.304533102804</v>
+        <v>-146.3914664649536</v>
       </c>
       <c r="AL43" t="n">
-        <v>-72.10465949373766</v>
+        <v>-66.06589426113713</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>-95.74001188847357</v>
+        <v>-87.72178589281391</v>
       </c>
       <c r="AO43" t="n">
-        <v>42</v>
+        <v>37.36875</v>
       </c>
       <c r="AP43" t="n">
         <v>56.86374264883423</v>
@@ -7316,25 +7316,25 @@
         <v>79.64065551027335</v>
       </c>
       <c r="AR43" t="n">
-        <v>4.75707077971359</v>
+        <v>4.256911054809891</v>
       </c>
       <c r="AS43" t="n">
-        <v>-307.4035619460483</v>
+        <v>-273.4486060451518</v>
       </c>
       <c r="AT43" t="n">
         <v>0</v>
       </c>
       <c r="AU43" t="n">
-        <v>-411.9985643971208</v>
+        <v>-366.4517011663697</v>
       </c>
       <c r="AV43" t="n">
-        <v>30</v>
+        <v>26.6625</v>
       </c>
       <c r="AW43" t="n">
-        <v>3.716315911648871</v>
+        <v>3.317651201344689</v>
       </c>
       <c r="AX43" t="n">
-        <v>-254.775418971151</v>
+        <v>-226.389217028191</v>
       </c>
       <c r="AY43" t="n">
         <v>56.86374264883423</v>
@@ -7599,13 +7599,13 @@
         <v>16.65625</v>
       </c>
       <c r="AI45" t="n">
-        <v>1.848673198108584</v>
+        <v>1.848673198108588</v>
       </c>
       <c r="AJ45" t="n">
         <v>2.626527600409459</v>
       </c>
       <c r="AK45" t="n">
-        <v>-90.71042654167661</v>
+        <v>-90.71042654167658</v>
       </c>
       <c r="AL45" t="n">
         <v>-120.0993234692568</v>
@@ -7758,13 +7758,13 @@
         <v>81.9375</v>
       </c>
       <c r="AI46" t="n">
-        <v>8.797899678201535</v>
+        <v>8.797899678201549</v>
       </c>
       <c r="AJ46" t="n">
         <v>10.06252992481679</v>
       </c>
       <c r="AK46" t="n">
-        <v>-266.9125574634944</v>
+        <v>-266.9125574634942</v>
       </c>
       <c r="AL46" t="n">
         <v>-215.9197261825107</v>
@@ -7917,10 +7917,10 @@
         <v>47.44375</v>
       </c>
       <c r="AI47" t="n">
-        <v>4.780469342866596</v>
+        <v>4.780469342866589</v>
       </c>
       <c r="AJ47" t="n">
-        <v>6.999871503981661</v>
+        <v>6.999871503981654</v>
       </c>
       <c r="AK47" t="n">
         <v>-176.9384465749604</v>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="AU47" t="n">
-        <v>-972.4370408621654</v>
+        <v>-972.4370408621656</v>
       </c>
       <c r="AV47" t="n">
         <v>75.22499999999999</v>
@@ -8235,7 +8235,7 @@
         <v>5.85</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.6761252521368651</v>
+        <v>0.676125252136865</v>
       </c>
       <c r="AJ49" t="n">
         <v>1.144464787679111</v>
@@ -8277,7 +8277,7 @@
         <v>8.225</v>
       </c>
       <c r="AW49" t="n">
-        <v>1.713586860035316</v>
+        <v>1.713586860035312</v>
       </c>
       <c r="AX49" t="n">
         <v>-156.0908448369054</v>
@@ -8394,13 +8394,13 @@
         <v>13</v>
       </c>
       <c r="AI50" t="n">
-        <v>2.441945114040326</v>
+        <v>2.441945114040323</v>
       </c>
       <c r="AJ50" t="n">
         <v>2.116352432168281</v>
       </c>
       <c r="AK50" t="n">
-        <v>-68.69215808885467</v>
+        <v>-68.6921580888547</v>
       </c>
       <c r="AL50" t="n">
         <v>-59.53320367700739</v>
@@ -8424,7 +8424,7 @@
         <v>4.758357849341841</v>
       </c>
       <c r="AS50" t="n">
-        <v>-186.5881293351539</v>
+        <v>-186.5881293351538</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>28</v>
       </c>
       <c r="AW50" t="n">
-        <v>3.401804981870314</v>
+        <v>3.401804981870318</v>
       </c>
       <c r="AX50" t="n">
         <v>-131.2980621548989</v>
@@ -8556,19 +8556,19 @@
         <v>1.423416635655411</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1.173810038645241</v>
+        <v>1.173810038645243</v>
       </c>
       <c r="AK51" t="n">
         <v>-93.83208594403841</v>
       </c>
       <c r="AL51" t="n">
-        <v>-56.30322507641083</v>
+        <v>-56.30322507641085</v>
       </c>
       <c r="AM51" t="n">
         <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>-76.32080652730158</v>
+        <v>-76.3208065273016</v>
       </c>
       <c r="AO51" t="n">
         <v>15.75</v>
@@ -8583,13 +8583,13 @@
         <v>2.258227318291564</v>
       </c>
       <c r="AS51" t="n">
-        <v>-149.1532196049825</v>
+        <v>-149.1532196049824</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
       </c>
       <c r="AU51" t="n">
-        <v>-204.0606792248468</v>
+        <v>-204.0606792248466</v>
       </c>
       <c r="AV51" t="n">
         <v>11</v>
@@ -8715,19 +8715,19 @@
         <v>13.43069812722179</v>
       </c>
       <c r="AJ52" t="n">
-        <v>3.915821504035011</v>
+        <v>3.915821504035012</v>
       </c>
       <c r="AK52" t="n">
         <v>-377.8068694887008</v>
       </c>
       <c r="AL52" t="n">
-        <v>-94.48637419526385</v>
+        <v>-94.48637419526382</v>
       </c>
       <c r="AM52" t="n">
         <v>0</v>
       </c>
       <c r="AN52" t="n">
-        <v>-133.1138177629116</v>
+        <v>-133.1138177629115</v>
       </c>
       <c r="AO52" t="n">
         <v>154.125</v>
@@ -8871,16 +8871,16 @@
         <v>15.4</v>
       </c>
       <c r="AI53" t="n">
-        <v>8.852651136774103</v>
+        <v>8.852651136774089</v>
       </c>
       <c r="AJ53" t="n">
-        <v>2.412525209355437</v>
+        <v>2.412525209355434</v>
       </c>
       <c r="AK53" t="n">
-        <v>-406.7660559085578</v>
+        <v>-406.7660559085577</v>
       </c>
       <c r="AL53" t="n">
-        <v>-87.3713707420255</v>
+        <v>-87.37137074202553</v>
       </c>
       <c r="AM53" t="n">
         <v>0</v>
@@ -8898,7 +8898,7 @@
         <v>142.1882406676468</v>
       </c>
       <c r="AR53" t="n">
-        <v>8.983183238622585</v>
+        <v>8.98318323862259</v>
       </c>
       <c r="AS53" t="n">
         <v>-435.0641813811471</v>
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="AU53" t="n">
-        <v>-707.9877809693832</v>
+        <v>-707.9877809693835</v>
       </c>
       <c r="AV53" t="n">
         <v>58.4</v>
@@ -9030,13 +9030,13 @@
         <v>31</v>
       </c>
       <c r="AI54" t="n">
-        <v>12.56676868493673</v>
+        <v>12.56676868493675</v>
       </c>
       <c r="AJ54" t="n">
         <v>3.792314011571541</v>
       </c>
       <c r="AK54" t="n">
-        <v>-277.776590091891</v>
+        <v>-277.7765900918909</v>
       </c>
       <c r="AL54" t="n">
         <v>-77.52366929419691</v>
@@ -9072,10 +9072,10 @@
         <v>123.5</v>
       </c>
       <c r="AW54" t="n">
-        <v>11.38810877634884</v>
+        <v>11.38810877634885</v>
       </c>
       <c r="AX54" t="n">
-        <v>-384.9544391317317</v>
+        <v>-384.9544391317318</v>
       </c>
       <c r="AY54" t="n">
         <v>149.3411315020865</v>
@@ -9192,7 +9192,7 @@
         <v>2.727725295191918</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1.293059741740044</v>
+        <v>1.293059741740043</v>
       </c>
       <c r="AK55" t="n">
         <v>-133.8436264822433</v>
@@ -9219,7 +9219,7 @@
         <v>3.878170107715471</v>
       </c>
       <c r="AS55" t="n">
-        <v>-248.026684289271</v>
+        <v>-248.0266842892711</v>
       </c>
       <c r="AT55" t="n">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>3.091362916253101</v>
       </c>
       <c r="AK57" t="n">
-        <v>-92.01749320654226</v>
+        <v>-92.01749320654227</v>
       </c>
       <c r="AL57" t="n">
         <v>-133.102759864271</v>
@@ -9530,10 +9530,10 @@
         <v>106.3249902119987</v>
       </c>
       <c r="AR57" t="n">
-        <v>4.733691123860803</v>
+        <v>4.733691123860805</v>
       </c>
       <c r="AS57" t="n">
-        <v>-287.4437316644654</v>
+        <v>-287.4437316644655</v>
       </c>
       <c r="AT57" t="n">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>32</v>
       </c>
       <c r="AW57" t="n">
-        <v>3.953370885669564</v>
+        <v>3.953370885669568</v>
       </c>
       <c r="AX57" t="n">
         <v>-271.7912330256934</v>
@@ -9668,7 +9668,7 @@
         <v>10.07369143517037</v>
       </c>
       <c r="AK58" t="n">
-        <v>-165.9484238336369</v>
+        <v>-165.9484238336368</v>
       </c>
       <c r="AL58" t="n">
         <v>-167.9119630305086</v>
@@ -9707,7 +9707,7 @@
         <v>11.08164836259244</v>
       </c>
       <c r="AX58" t="n">
-        <v>-273.5251281150283</v>
+        <v>-273.5251281150284</v>
       </c>
       <c r="AY58" t="n">
         <v>169.9990597891733</v>
@@ -9821,10 +9821,10 @@
         <v>33.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>3.35547004493673</v>
+        <v>3.355470044936727</v>
       </c>
       <c r="AJ59" t="n">
-        <v>5.167136979174233</v>
+        <v>5.167136979174238</v>
       </c>
       <c r="AK59" t="n">
         <v>-124.1952650874862</v>
@@ -9836,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="AN59" t="n">
-        <v>-238.5723146164018</v>
+        <v>-238.5723146164017</v>
       </c>
       <c r="AO59" t="n">
         <v>73.65000000000001</v>
@@ -9848,25 +9848,25 @@
         <v>116.8934029664726</v>
       </c>
       <c r="AR59" t="n">
-        <v>7.938834036856726</v>
+        <v>7.938834036856731</v>
       </c>
       <c r="AS59" t="n">
-        <v>-391.0720426553531</v>
+        <v>-391.072042655353</v>
       </c>
       <c r="AT59" t="n">
         <v>0</v>
       </c>
       <c r="AU59" t="n">
-        <v>-543.3634630817261</v>
+        <v>-543.3634630817259</v>
       </c>
       <c r="AV59" t="n">
         <v>53</v>
       </c>
       <c r="AW59" t="n">
-        <v>6.476314780414633</v>
+        <v>6.476314780414641</v>
       </c>
       <c r="AX59" t="n">
-        <v>-344.7240833638019</v>
+        <v>-344.7240833638018</v>
       </c>
       <c r="AY59" t="n">
         <v>74.70889227763402</v>
@@ -10135,7 +10135,7 @@
         <v>7.45</v>
       </c>
       <c r="AI61" t="n">
-        <v>6.092223046669401</v>
+        <v>6.092223046669414</v>
       </c>
       <c r="AJ61" t="n">
         <v>1.457480797984509</v>
@@ -10144,13 +10144,13 @@
         <v>-401.6013288580102</v>
       </c>
       <c r="AL61" t="n">
-        <v>-69.90983780321012</v>
+        <v>-69.90983780321017</v>
       </c>
       <c r="AM61" t="n">
         <v>0</v>
       </c>
       <c r="AN61" t="n">
-        <v>-94.76500143806614</v>
+        <v>-94.76500143806618</v>
       </c>
       <c r="AO61" t="n">
         <v>40.065</v>
@@ -10766,7 +10766,7 @@
         <v>2.461345871833335</v>
       </c>
       <c r="AJ65" t="n">
-        <v>3.788759669384004</v>
+        <v>3.788759669384003</v>
       </c>
       <c r="AK65" t="n">
         <v>-120.7729598335867</v>
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="AN65" t="n">
-        <v>-216.8839627132456</v>
+        <v>-216.8839627132457</v>
       </c>
       <c r="AO65" t="n">
         <v>55.93125000000001</v>
@@ -11126,7 +11126,7 @@
         <v>6.608255006501798</v>
       </c>
       <c r="AX67" t="n">
-        <v>-352.4007150574531</v>
+        <v>-352.4007150574532</v>
       </c>
       <c r="AY67" t="n">
         <v>74.70889227763402</v>
